--- a/config_12.22/shoping_config.xlsx
+++ b/config_12.22/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -10771,10 +10771,10 @@
   <dimension ref="A1:AN492"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="R46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W370" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R67" sqref="R67"/>
+      <selection pane="bottomRight" activeCell="G392" sqref="G392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -35238,10 +35238,10 @@
         <v>9999999</v>
       </c>
       <c r="Y386" s="62">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z386" s="62">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA386" s="62">
         <v>44</v>
@@ -35306,10 +35306,10 @@
         <v>9999999</v>
       </c>
       <c r="Y387" s="62">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z387" s="62">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA387" s="62">
         <v>44</v>
@@ -35374,10 +35374,10 @@
         <v>9999999</v>
       </c>
       <c r="Y388" s="62">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z388" s="62">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA388" s="62">
         <v>44</v>
@@ -35441,11 +35441,11 @@
       <c r="X389" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y389" s="60">
-        <v>1605571200</v>
-      </c>
-      <c r="Z389" s="60">
-        <v>1606147199</v>
+      <c r="Y389" s="62">
+        <v>1608595200</v>
+      </c>
+      <c r="Z389" s="62">
+        <v>1609171199</v>
       </c>
       <c r="AA389" s="60">
         <v>45</v>
@@ -35509,11 +35509,11 @@
       <c r="X390" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y390" s="60">
-        <v>1605571200</v>
-      </c>
-      <c r="Z390" s="60">
-        <v>1606147199</v>
+      <c r="Y390" s="62">
+        <v>1608595200</v>
+      </c>
+      <c r="Z390" s="62">
+        <v>1609171199</v>
       </c>
       <c r="AA390" s="60">
         <v>45</v>
@@ -35577,11 +35577,11 @@
       <c r="X391" s="60">
         <v>9999999</v>
       </c>
-      <c r="Y391" s="60">
-        <v>1605571200</v>
-      </c>
-      <c r="Z391" s="60">
-        <v>1606147199</v>
+      <c r="Y391" s="62">
+        <v>1608595200</v>
+      </c>
+      <c r="Z391" s="62">
+        <v>1609171199</v>
       </c>
       <c r="AA391" s="60">
         <v>45</v>
@@ -35646,10 +35646,10 @@
         <v>9999999</v>
       </c>
       <c r="Y392" s="62">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z392" s="62">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA392" s="62">
         <v>46</v>
@@ -35714,10 +35714,10 @@
         <v>9999999</v>
       </c>
       <c r="Y393" s="62">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z393" s="62">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA393" s="62">
         <v>46</v>
@@ -35782,10 +35782,10 @@
         <v>9999999</v>
       </c>
       <c r="Y394" s="62">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z394" s="62">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA394" s="62">
         <v>46</v>

--- a/config_12.22/shoping_config.xlsx
+++ b/config_12.22/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -10771,10 +10771,10 @@
   <dimension ref="A1:AN492"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W370" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="O60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G392" sqref="G392"/>
+      <selection pane="bottomRight" activeCell="Q77" sqref="Q77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -15243,7 +15243,7 @@
         <v>100</v>
       </c>
       <c r="Q77" s="19" t="s">
-        <v>1372</v>
+        <v>502</v>
       </c>
       <c r="R77" s="39" t="s">
         <v>1733</v>

--- a/config_12.22/shoping_config.xlsx
+++ b/config_12.22/shoping_config.xlsx
@@ -7684,10 +7684,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>首充加赠2460万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>首冲15元加赠</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7885,6 +7881,10 @@
   </si>
   <si>
     <t>20400000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>首充加赠2640万</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10771,10 +10771,10 @@
   <dimension ref="A1:AN492"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="O60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q77" sqref="Q77"/>
+      <selection pane="bottomRight" activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -14631,7 +14631,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="72" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H67" s="72" t="s">
         <v>1771</v>
@@ -14655,7 +14655,7 @@
         <v>88</v>
       </c>
       <c r="R67" s="73" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="W67" s="72" t="s">
         <v>547</v>
@@ -14714,7 +14714,7 @@
         <v>88</v>
       </c>
       <c r="R68" s="73" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="W68" s="72" t="s">
         <v>547</v>
@@ -14773,7 +14773,7 @@
         <v>88</v>
       </c>
       <c r="R69" s="73" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="W69" s="72" t="s">
         <v>547</v>
@@ -14870,7 +14870,7 @@
         <v>239</v>
       </c>
       <c r="H71" s="72" t="s">
-        <v>1775</v>
+        <v>1825</v>
       </c>
       <c r="L71" s="72">
         <v>-4</v>
@@ -14891,7 +14891,7 @@
         <v>88</v>
       </c>
       <c r="R71" s="73" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="W71" s="72" t="s">
         <v>547</v>
@@ -18254,7 +18254,7 @@
         <v>329</v>
       </c>
       <c r="H128" s="72" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="L128" s="72">
         <v>-10</v>
@@ -18275,7 +18275,7 @@
         <v>88</v>
       </c>
       <c r="R128" s="73" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="W128" s="72" t="s">
         <v>547</v>
@@ -18313,7 +18313,7 @@
         <v>537</v>
       </c>
       <c r="H129" s="72" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="L129" s="72">
         <v>-11</v>
@@ -18334,7 +18334,7 @@
         <v>88</v>
       </c>
       <c r="R129" s="73" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="W129" s="72" t="s">
         <v>547</v>
@@ -27616,7 +27616,7 @@
         <v>540</v>
       </c>
       <c r="H273" s="76" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="L273" s="76">
         <v>-10</v>
@@ -27637,7 +27637,7 @@
         <v>88</v>
       </c>
       <c r="R273" s="78" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="W273" s="76" t="s">
         <v>547</v>
@@ -37037,7 +37037,7 @@
         <v>1425</v>
       </c>
       <c r="H414" s="72" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="L414" s="72">
         <v>-4</v>
@@ -43134,8 +43134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -43267,7 +43267,9 @@
       <c r="C2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="52"/>
+      <c r="D2" s="52">
+        <v>10330</v>
+      </c>
       <c r="F2" s="11">
         <v>1</v>
       </c>
@@ -43302,7 +43304,7 @@
         <v>1763</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="T2" s="33" t="s">
         <v>1021</v>
@@ -43373,7 +43375,7 @@
         <v>1764</v>
       </c>
       <c r="R3" s="33" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="T3" s="33" t="s">
         <v>1021</v>
@@ -43444,7 +43446,7 @@
         <v>1765</v>
       </c>
       <c r="R4" s="33" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="T4" s="33" t="s">
         <v>1022</v>
@@ -43515,7 +43517,7 @@
         <v>1766</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="T5" s="33" t="s">
         <v>1022</v>
@@ -43586,7 +43588,7 @@
         <v>1767</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="T6" s="33" t="s">
         <v>1022</v>
@@ -43657,7 +43659,7 @@
         <v>1768</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="T7" s="33" t="s">
         <v>1022</v>
@@ -43720,10 +43722,10 @@
         <v>0</v>
       </c>
       <c r="Q8" s="33" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="R8" s="33" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="T8" s="33" t="s">
         <v>1023</v>
@@ -43786,10 +43788,10 @@
         <v>2</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="R9" s="33" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="U9" s="11">
         <v>5000</v>
@@ -43852,10 +43854,10 @@
         <v>1</v>
       </c>
       <c r="Q10" s="33" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="R10" s="33" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="U10" s="11">
         <v>1000</v>
@@ -43918,10 +43920,10 @@
         <v>0</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="T11" s="33" t="s">
         <v>1024</v>
@@ -43989,10 +43991,10 @@
         <v>9</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="T12" s="33" t="s">
         <v>1022</v>
@@ -44060,10 +44062,10 @@
         <v>10</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="T13" s="33" t="s">
         <v>1024</v>
@@ -44131,10 +44133,10 @@
         <v>11</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="R14" s="33" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="T14" s="33" t="s">
         <v>1025</v>
@@ -44200,10 +44202,10 @@
         <v>0</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="R15" s="33" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="T15" s="33"/>
       <c r="U15" s="11">
@@ -44272,10 +44274,10 @@
         <v>3</v>
       </c>
       <c r="Q16" s="33" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="R16" s="33" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="T16" s="33" t="s">
         <v>1026</v>
@@ -44338,10 +44340,10 @@
         <v>4</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="R17" s="33" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="T17" s="33" t="s">
         <v>1027</v>
@@ -44404,10 +44406,10 @@
         <v>5</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="R18" s="33" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="T18" s="33" t="s">
         <v>1024</v>
@@ -44470,10 +44472,10 @@
         <v>6</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="T19" s="33" t="s">
         <v>1028</v>
@@ -44536,10 +44538,10 @@
         <v>7</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="R20" s="33" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="T20" s="33" t="s">
         <v>1022</v>
@@ -44602,10 +44604,10 @@
         <v>0</v>
       </c>
       <c r="Q21" s="35" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="R21" s="35" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="T21" s="35" t="s">
         <v>1021</v>
@@ -44668,10 +44670,10 @@
         <v>2</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="R22" s="33" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="T22" s="33"/>
       <c r="U22" s="11">
@@ -44732,10 +44734,10 @@
         <v>1</v>
       </c>
       <c r="Q23" s="33" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="R23" s="33" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="T23" s="33"/>
       <c r="U23" s="11">
@@ -44799,10 +44801,10 @@
         <v>0</v>
       </c>
       <c r="Q24" s="33" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="R24" s="33" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="T24" s="33"/>
       <c r="U24" s="11">
@@ -44871,10 +44873,10 @@
         <v>8</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="R25" s="33" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="T25" s="33" t="s">
         <v>1029</v>
